--- a/data/trans_orig/Predimed_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7FA3B3-6640-4D43-AB7B-765F5BFF8CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4CEA6DB-31D7-4BEB-99CD-F27C068BE019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7B52895-F1B0-4DF4-A04F-40D0E1E13D42}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8EBD3347-36C5-4A7F-B73A-73DD4C9B98E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>Baja</t>
   </si>
   <si>
-    <t>89,63%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,454 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94779D4C-706E-4307-A6D1-4A8857A60A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3635FC14-1ACD-4519-B33F-EF5E3DD94699}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1111,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>26871</v>
+        <v>30602</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>29429</v>
+        <v>31309</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1141,7 @@
         <v>95</v>
       </c>
       <c r="N4" s="7">
-        <v>56300</v>
+        <v>61911</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1162,7 @@
         <v>292</v>
       </c>
       <c r="D5" s="7">
-        <v>232203</v>
+        <v>279309</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1177,7 @@
         <v>480</v>
       </c>
       <c r="I5" s="7">
-        <v>241500</v>
+        <v>257828</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1192,7 @@
         <v>772</v>
       </c>
       <c r="N5" s="7">
-        <v>473702</v>
+        <v>537137</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1213,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259074</v>
+        <v>309911</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1228,7 @@
         <v>537</v>
       </c>
       <c r="I6" s="7">
-        <v>270929</v>
+        <v>289137</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1243,7 @@
         <v>867</v>
       </c>
       <c r="N6" s="7">
-        <v>530002</v>
+        <v>599048</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1266,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>30270</v>
+        <v>30025</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1281,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>40175</v>
+        <v>37163</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1296,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>70444</v>
+        <v>67188</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1317,7 @@
         <v>306</v>
       </c>
       <c r="D8" s="7">
-        <v>412737</v>
+        <v>410159</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1332,7 @@
         <v>599</v>
       </c>
       <c r="I8" s="7">
-        <v>455251</v>
+        <v>422575</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1347,7 @@
         <v>905</v>
       </c>
       <c r="N8" s="7">
-        <v>867989</v>
+        <v>832734</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1368,7 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>443007</v>
+        <v>440184</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1383,7 @@
         <v>649</v>
       </c>
       <c r="I9" s="7">
-        <v>495426</v>
+        <v>459738</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1398,7 @@
         <v>980</v>
       </c>
       <c r="N9" s="7">
-        <v>938433</v>
+        <v>899922</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1421,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>85250</v>
+        <v>82657</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1436,7 @@
         <v>153</v>
       </c>
       <c r="I10" s="7">
-        <v>104045</v>
+        <v>97311</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1451,7 @@
         <v>253</v>
       </c>
       <c r="N10" s="7">
-        <v>189295</v>
+        <v>179968</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1472,7 @@
         <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>213705</v>
+        <v>210804</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1487,7 @@
         <v>344</v>
       </c>
       <c r="I11" s="7">
-        <v>242185</v>
+        <v>226596</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1502,7 @@
         <v>577</v>
       </c>
       <c r="N11" s="7">
-        <v>455890</v>
+        <v>437400</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1523,7 @@
         <v>333</v>
       </c>
       <c r="D12" s="7">
-        <v>298955</v>
+        <v>293461</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1538,7 @@
         <v>497</v>
       </c>
       <c r="I12" s="7">
-        <v>346230</v>
+        <v>323907</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1553,7 @@
         <v>830</v>
       </c>
       <c r="N12" s="7">
-        <v>645185</v>
+        <v>617368</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1576,7 @@
         <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>94704</v>
+        <v>90493</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1591,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="7">
-        <v>139558</v>
+        <v>152628</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1606,7 @@
         <v>270</v>
       </c>
       <c r="N13" s="7">
-        <v>234262</v>
+        <v>243121</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1627,7 @@
         <v>152</v>
       </c>
       <c r="D14" s="7">
-        <v>156990</v>
+        <v>152163</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1642,7 @@
         <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>209400</v>
+        <v>249406</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1657,7 @@
         <v>442</v>
       </c>
       <c r="N14" s="7">
-        <v>366389</v>
+        <v>401569</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1678,7 @@
         <v>234</v>
       </c>
       <c r="D15" s="7">
-        <v>251694</v>
+        <v>242656</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1693,7 @@
         <v>478</v>
       </c>
       <c r="I15" s="7">
-        <v>348958</v>
+        <v>402034</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1708,7 @@
         <v>712</v>
       </c>
       <c r="N15" s="7">
-        <v>600651</v>
+        <v>644690</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1731,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>41667</v>
+        <v>37978</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1746,7 @@
         <v>143</v>
       </c>
       <c r="I16" s="7">
-        <v>72403</v>
+        <v>64691</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,16 +1761,16 @@
         <v>200</v>
       </c>
       <c r="N16" s="7">
-        <v>114070</v>
+        <v>102668</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,46 +1782,46 @@
         <v>215</v>
       </c>
       <c r="D17" s="7">
-        <v>149322</v>
+        <v>135604</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>339</v>
       </c>
       <c r="I17" s="7">
-        <v>154011</v>
+        <v>138881</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>554</v>
       </c>
       <c r="N17" s="7">
-        <v>303333</v>
+        <v>274486</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,7 +1833,7 @@
         <v>272</v>
       </c>
       <c r="D18" s="7">
-        <v>190989</v>
+        <v>173582</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1848,7 @@
         <v>482</v>
       </c>
       <c r="I18" s="7">
-        <v>226414</v>
+        <v>203572</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1863,7 @@
         <v>754</v>
       </c>
       <c r="N18" s="7">
-        <v>417403</v>
+        <v>377154</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1892,46 +1886,46 @@
         <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>41569</v>
+        <v>40026</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>25490</v>
+        <v>23746</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
       </c>
       <c r="N19" s="7">
-        <v>67059</v>
+        <v>63772</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,46 +1937,46 @@
         <v>309</v>
       </c>
       <c r="D20" s="7">
-        <v>232928</v>
+        <v>227018</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>410</v>
       </c>
       <c r="I20" s="7">
-        <v>247492</v>
+        <v>230872</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>719</v>
       </c>
       <c r="N20" s="7">
-        <v>480420</v>
+        <v>457891</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,7 +1988,7 @@
         <v>367</v>
       </c>
       <c r="D21" s="7">
-        <v>274497</v>
+        <v>267044</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2003,7 @@
         <v>456</v>
       </c>
       <c r="I21" s="7">
-        <v>272982</v>
+        <v>254618</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2018,7 @@
         <v>823</v>
       </c>
       <c r="N21" s="7">
-        <v>547479</v>
+        <v>521663</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2047,46 +2041,46 @@
         <v>186</v>
       </c>
       <c r="D22" s="7">
-        <v>185274</v>
+        <v>180631</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
       </c>
       <c r="I22" s="7">
-        <v>199805</v>
+        <v>184555</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>478</v>
       </c>
       <c r="N22" s="7">
-        <v>385080</v>
+        <v>365185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,46 +2092,46 @@
         <v>378</v>
       </c>
       <c r="D23" s="7">
-        <v>404080</v>
+        <v>404666</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>627</v>
       </c>
       <c r="I23" s="7">
-        <v>575058</v>
+        <v>637652</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1005</v>
       </c>
       <c r="N23" s="7">
-        <v>979138</v>
+        <v>1042319</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2143,7 @@
         <v>564</v>
       </c>
       <c r="D24" s="7">
-        <v>589354</v>
+        <v>585297</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2158,7 @@
         <v>919</v>
       </c>
       <c r="I24" s="7">
-        <v>774863</v>
+        <v>822207</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2173,7 @@
         <v>1483</v>
       </c>
       <c r="N24" s="7">
-        <v>1364218</v>
+        <v>1407504</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2202,46 +2196,46 @@
         <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>28477</v>
+        <v>24107</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
       </c>
       <c r="I25" s="7">
-        <v>54992</v>
+        <v>43915</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
       </c>
       <c r="N25" s="7">
-        <v>83469</v>
+        <v>68022</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,46 +2247,46 @@
         <v>720</v>
       </c>
       <c r="D26" s="7">
-        <v>813879</v>
+        <v>890119</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>989</v>
       </c>
       <c r="I26" s="7">
-        <v>799723</v>
+        <v>662599</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1709</v>
       </c>
       <c r="N26" s="7">
-        <v>1613602</v>
+        <v>1552718</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2298,7 @@
         <v>746</v>
       </c>
       <c r="D27" s="7">
-        <v>842356</v>
+        <v>914226</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2313,7 @@
         <v>1047</v>
       </c>
       <c r="I27" s="7">
-        <v>854715</v>
+        <v>706514</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2328,7 @@
         <v>1793</v>
       </c>
       <c r="N27" s="7">
-        <v>1697071</v>
+        <v>1620740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,46 +2351,46 @@
         <v>572</v>
       </c>
       <c r="D28" s="7">
-        <v>534081</v>
+        <v>516519</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>987</v>
       </c>
       <c r="I28" s="7">
-        <v>665897</v>
+        <v>635318</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
       </c>
       <c r="N28" s="7">
-        <v>1199978</v>
+        <v>1151836</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,46 +2402,46 @@
         <v>2605</v>
       </c>
       <c r="D29" s="7">
-        <v>2615845</v>
+        <v>2709843</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4078</v>
       </c>
       <c r="I29" s="7">
-        <v>2924619</v>
+        <v>2826408</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6683</v>
       </c>
       <c r="N29" s="7">
-        <v>5540464</v>
+        <v>5536252</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2453,7 @@
         <v>3177</v>
       </c>
       <c r="D30" s="7">
-        <v>3149926</v>
+        <v>3226362</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2468,7 @@
         <v>5065</v>
       </c>
       <c r="I30" s="7">
-        <v>3590516</v>
+        <v>3461726</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2483,7 @@
         <v>8242</v>
       </c>
       <c r="N30" s="7">
-        <v>6740442</v>
+        <v>6688088</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
